--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpate\Documents\UA\Mestrado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDC1845-61B3-4086-BEF4-B0349FFAD789}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2363DFB8-15B3-4225-8E76-DA94C40D2080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9192" yWindow="-144" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quadro" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="341">
   <si>
     <t>Anos</t>
   </si>
@@ -1047,16 +1047,13 @@
     <t>Suicidio - 2011</t>
   </si>
   <si>
-    <t xml:space="preserve">Regiões com problemas de interioridade </t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior </t>
-  </si>
-  <si>
     <t>interior</t>
   </si>
   <si>
     <t>litoral</t>
+  </si>
+  <si>
+    <t>Regiões com problemas de interioridade</t>
   </si>
 </sst>
 </file>
@@ -1678,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB309"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1699,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>337</v>
@@ -2121,7 +2118,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D6" s="11">
         <v>0</v>
@@ -2207,7 +2204,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D7" s="12">
         <v>0</v>
@@ -2293,7 +2290,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D8" s="11">
         <v>0</v>
@@ -2379,7 +2376,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D9" s="12">
         <v>1.8</v>
@@ -2465,7 +2462,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D10" s="11">
         <v>0</v>
@@ -2551,7 +2548,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D11" s="12">
         <v>0</v>
@@ -2637,7 +2634,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D12" s="11">
         <v>0.7</v>
@@ -2723,7 +2720,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D13" s="12">
         <v>1.6</v>
@@ -2809,7 +2806,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D14" s="11">
         <v>0.6</v>
@@ -2895,7 +2892,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D15" s="12">
         <v>0</v>
@@ -2981,7 +2978,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D16" s="11">
         <v>0.6</v>
@@ -3067,7 +3064,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D17" s="12">
         <v>0</v>
@@ -3153,7 +3150,7 @@
         <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D18" s="11">
         <v>0.6</v>
@@ -3239,7 +3236,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D19" s="12">
         <v>0.8</v>
@@ -3325,7 +3322,7 @@
         <v>25</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D20" s="11">
         <v>0</v>
@@ -3411,7 +3408,7 @@
         <v>26</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D21" s="12">
         <v>0</v>
@@ -3497,7 +3494,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D22" s="11">
         <v>0</v>
@@ -3667,7 +3664,7 @@
         <v>29</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D24" s="11">
         <v>0</v>
@@ -3753,7 +3750,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D25" s="12">
         <v>0.7</v>
@@ -3839,7 +3836,7 @@
         <v>31</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D26" s="11">
         <v>1.2</v>
@@ -3925,7 +3922,7 @@
         <v>32</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D27" s="12">
         <v>0</v>
@@ -4011,7 +4008,7 @@
         <v>33</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D28" s="11">
         <v>0</v>
@@ -4097,7 +4094,7 @@
         <v>34</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D29" s="12">
         <v>0</v>
@@ -4183,7 +4180,7 @@
         <v>35</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D30" s="11">
         <v>0.6</v>
@@ -4269,7 +4266,7 @@
         <v>36</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D31" s="12">
         <v>0</v>
@@ -4439,7 +4436,7 @@
         <v>38</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D33" s="12">
         <v>0</v>
@@ -4525,7 +4522,7 @@
         <v>39</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D34" s="11">
         <v>0</v>
@@ -4611,7 +4608,7 @@
         <v>40</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D35" s="12">
         <v>0.4</v>
@@ -4697,7 +4694,7 @@
         <v>41</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D36" s="11">
         <v>0.6</v>
@@ -4783,7 +4780,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D37" s="12">
         <v>0.7</v>
@@ -4869,7 +4866,7 @@
         <v>43</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D38" s="11">
         <v>0.8</v>
@@ -4955,7 +4952,7 @@
         <v>44</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D39" s="12">
         <v>1.4</v>
@@ -5041,7 +5038,7 @@
         <v>45</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D40" s="11">
         <v>0.2</v>
@@ -5127,7 +5124,7 @@
         <v>46</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D41" s="12">
         <v>0</v>
@@ -5213,7 +5210,7 @@
         <v>47</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D42" s="11">
         <v>0</v>
@@ -5299,7 +5296,7 @@
         <v>48</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D43" s="12">
         <v>0.5</v>
@@ -5385,7 +5382,7 @@
         <v>49</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D44" s="11">
         <v>0</v>
@@ -5471,7 +5468,7 @@
         <v>50</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D45" s="12">
         <v>0</v>
@@ -5557,7 +5554,7 @@
         <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D46" s="11">
         <v>0</v>
@@ -5643,7 +5640,7 @@
         <v>52</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D47" s="12">
         <v>0.6</v>
@@ -5729,7 +5726,7 @@
         <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D48" s="11">
         <v>0</v>
@@ -5815,7 +5812,7 @@
         <v>54</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D49" s="12">
         <v>0.5</v>
@@ -5985,7 +5982,7 @@
         <v>56</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D51" s="12">
         <v>0</v>
@@ -6071,7 +6068,7 @@
         <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D52" s="11">
         <v>0</v>
@@ -6157,7 +6154,7 @@
         <v>58</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D53" s="12">
         <v>0</v>
@@ -6243,7 +6240,7 @@
         <v>59</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D54" s="11">
         <v>0</v>
@@ -6329,7 +6326,7 @@
         <v>60</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D55" s="12">
         <v>1.2</v>
@@ -6415,7 +6412,7 @@
         <v>61</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D56" s="11">
         <v>0</v>
@@ -6585,7 +6582,7 @@
         <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D58" s="11">
         <v>1.8</v>
@@ -6671,7 +6668,7 @@
         <v>64</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D59" s="12">
         <v>0</v>
@@ -6757,7 +6754,7 @@
         <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D60" s="11">
         <v>0</v>
@@ -6843,7 +6840,7 @@
         <v>66</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D61" s="12">
         <v>2.4</v>
@@ -6929,7 +6926,7 @@
         <v>67</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D62" s="11">
         <v>0</v>
@@ -7015,7 +7012,7 @@
         <v>68</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D63" s="12">
         <v>0.9</v>
@@ -7101,7 +7098,7 @@
         <v>69</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D64" s="11">
         <v>1.4</v>
@@ -7187,7 +7184,7 @@
         <v>70</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D65" s="12">
         <v>0.9</v>
@@ -7273,7 +7270,7 @@
         <v>71</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D66" s="11">
         <v>2.2000000000000002</v>
@@ -7359,7 +7356,7 @@
         <v>72</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D67" s="12">
         <v>1</v>
@@ -7445,7 +7442,7 @@
         <v>73</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D68" s="11">
         <v>0</v>
@@ -7615,7 +7612,7 @@
         <v>75</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D70" s="11">
         <v>0</v>
@@ -7701,7 +7698,7 @@
         <v>76</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D71" s="12">
         <v>0</v>
@@ -7787,7 +7784,7 @@
         <v>77</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D72" s="11">
         <v>0</v>
@@ -7873,7 +7870,7 @@
         <v>78</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D73" s="12">
         <v>0</v>
@@ -7959,7 +7956,7 @@
         <v>79</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D74" s="11">
         <v>0</v>
@@ -8045,7 +8042,7 @@
         <v>80</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D75" s="12">
         <v>0</v>
@@ -8131,7 +8128,7 @@
         <v>81</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D76" s="11">
         <v>0</v>
@@ -8217,7 +8214,7 @@
         <v>82</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D77" s="12">
         <v>0</v>
@@ -8303,7 +8300,7 @@
         <v>83</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D78" s="11">
         <v>0</v>
@@ -8389,7 +8386,7 @@
         <v>84</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D79" s="12">
         <v>0</v>
@@ -8475,7 +8472,7 @@
         <v>85</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D80" s="11">
         <v>0</v>
@@ -8561,7 +8558,7 @@
         <v>86</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D81" s="12">
         <v>0</v>
@@ -8647,7 +8644,7 @@
         <v>87</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D82" s="11">
         <v>0</v>
@@ -8733,7 +8730,7 @@
         <v>88</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D83" s="12">
         <v>0</v>
@@ -8819,7 +8816,7 @@
         <v>89</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D84" s="11">
         <v>0</v>
@@ -8905,7 +8902,7 @@
         <v>90</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D85" s="12">
         <v>0</v>
@@ -8991,7 +8988,7 @@
         <v>91</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D86" s="11">
         <v>0</v>
@@ -9077,7 +9074,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D87" s="12">
         <v>0</v>
@@ -9163,7 +9160,7 @@
         <v>93</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D88" s="11">
         <v>0.6</v>
@@ -9333,7 +9330,7 @@
         <v>95</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D90" s="11">
         <v>0</v>
@@ -9419,7 +9416,7 @@
         <v>96</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D91" s="12">
         <v>1.3</v>
@@ -9505,7 +9502,7 @@
         <v>97</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D92" s="11">
         <v>0</v>
@@ -9591,7 +9588,7 @@
         <v>98</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D93" s="12">
         <v>2.6</v>
@@ -9677,7 +9674,7 @@
         <v>99</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D94" s="11">
         <v>0</v>
@@ -9763,7 +9760,7 @@
         <v>100</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D95" s="12">
         <v>0</v>
@@ -9849,7 +9846,7 @@
         <v>101</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D96" s="11">
         <v>0</v>
@@ -9935,7 +9932,7 @@
         <v>102</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D97" s="12">
         <v>0</v>
@@ -10021,7 +10018,7 @@
         <v>103</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D98" s="11">
         <v>0</v>
@@ -10275,7 +10272,7 @@
         <v>106</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D101" s="12">
         <v>2.2000000000000002</v>
@@ -10361,7 +10358,7 @@
         <v>107</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D102" s="11">
         <v>0</v>
@@ -10447,7 +10444,7 @@
         <v>108</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D103" s="12">
         <v>0</v>
@@ -10533,7 +10530,7 @@
         <v>109</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D104" s="11">
         <v>0</v>
@@ -10619,7 +10616,7 @@
         <v>110</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D105" s="12">
         <v>2.8</v>
@@ -10705,7 +10702,7 @@
         <v>111</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D106" s="11">
         <v>1.4</v>
@@ -10791,7 +10788,7 @@
         <v>112</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D107" s="12">
         <v>0</v>
@@ -10877,7 +10874,7 @@
         <v>113</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D108" s="11">
         <v>1.7</v>
@@ -10963,7 +10960,7 @@
         <v>114</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D109" s="12">
         <v>0</v>
@@ -11049,7 +11046,7 @@
         <v>115</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D110" s="11">
         <v>0.9</v>
@@ -11135,7 +11132,7 @@
         <v>116</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D111" s="12">
         <v>0</v>
@@ -11221,7 +11218,7 @@
         <v>117</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D112" s="11">
         <v>1.1000000000000001</v>
@@ -11391,7 +11388,7 @@
         <v>119</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D114" s="11">
         <v>0</v>
@@ -11477,7 +11474,7 @@
         <v>120</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D115" s="12">
         <v>1.2</v>
@@ -11563,7 +11560,7 @@
         <v>121</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D116" s="11">
         <v>0</v>
@@ -11649,7 +11646,7 @@
         <v>122</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D117" s="12">
         <v>0.9</v>
@@ -11735,7 +11732,7 @@
         <v>123</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D118" s="11">
         <v>0</v>
@@ -11821,7 +11818,7 @@
         <v>124</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D119" s="12">
         <v>0</v>
@@ -11907,7 +11904,7 @@
         <v>125</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D120" s="11">
         <v>2.2999999999999998</v>
@@ -11993,7 +11990,7 @@
         <v>126</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D121" s="12">
         <v>0</v>
@@ -12079,7 +12076,7 @@
         <v>127</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D122" s="11">
         <v>0.8</v>
@@ -12165,7 +12162,7 @@
         <v>128</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D123" s="12">
         <v>0</v>
@@ -12251,7 +12248,7 @@
         <v>129</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D124" s="11">
         <v>1.6</v>
@@ -12421,7 +12418,7 @@
         <v>131</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D126" s="11">
         <v>0</v>
@@ -12507,7 +12504,7 @@
         <v>132</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D127" s="12">
         <v>1.2</v>
@@ -12593,7 +12590,7 @@
         <v>133</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D128" s="11">
         <v>0.5</v>
@@ -12679,7 +12676,7 @@
         <v>134</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D129" s="12">
         <v>2.4</v>
@@ -12765,7 +12762,7 @@
         <v>135</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D130" s="11">
         <v>0.4</v>
@@ -12851,7 +12848,7 @@
         <v>136</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D131" s="12">
         <v>0</v>
@@ -12937,7 +12934,7 @@
         <v>137</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D132" s="11">
         <v>0</v>
@@ -13023,7 +13020,7 @@
         <v>138</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D133" s="12">
         <v>0</v>
@@ -13109,7 +13106,7 @@
         <v>139</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D134" s="11">
         <v>0</v>
@@ -13195,7 +13192,7 @@
         <v>140</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D135" s="12">
         <v>0</v>
@@ -13281,7 +13278,7 @@
         <v>141</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D136" s="11">
         <v>2.2999999999999998</v>
@@ -13367,7 +13364,7 @@
         <v>142</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D137" s="12">
         <v>0</v>
@@ -13453,7 +13450,7 @@
         <v>143</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D138" s="11">
         <v>0</v>
@@ -13539,7 +13536,7 @@
         <v>144</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D139" s="12">
         <v>0</v>
@@ -13625,7 +13622,7 @@
         <v>145</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D140" s="11">
         <v>0</v>
@@ -13711,7 +13708,7 @@
         <v>146</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D141" s="12">
         <v>5.4</v>
@@ -13797,7 +13794,7 @@
         <v>147</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D142" s="11">
         <v>2</v>
@@ -13883,7 +13880,7 @@
         <v>148</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D143" s="12">
         <v>0</v>
@@ -13969,7 +13966,7 @@
         <v>149</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D144" s="11">
         <v>0</v>
@@ -14139,7 +14136,7 @@
         <v>151</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D146" s="11">
         <v>0</v>
@@ -14225,7 +14222,7 @@
         <v>152</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D147" s="12">
         <v>0</v>
@@ -14311,7 +14308,7 @@
         <v>153</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D148" s="11">
         <v>0</v>
@@ -14397,7 +14394,7 @@
         <v>154</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D149" s="12">
         <v>0</v>
@@ -14483,7 +14480,7 @@
         <v>155</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D150" s="11">
         <v>0</v>
@@ -14569,7 +14566,7 @@
         <v>156</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D151" s="12">
         <v>0.8</v>
@@ -14655,7 +14652,7 @@
         <v>157</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D152" s="11">
         <v>1.5</v>
@@ -14741,7 +14738,7 @@
         <v>158</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D153" s="12">
         <v>0</v>
@@ -14827,7 +14824,7 @@
         <v>159</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D154" s="11">
         <v>1.3</v>
@@ -14913,7 +14910,7 @@
         <v>160</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D155" s="12">
         <v>0</v>
@@ -14999,7 +14996,7 @@
         <v>161</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D156" s="11">
         <v>0.5</v>
@@ -15085,7 +15082,7 @@
         <v>162</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D157" s="12">
         <v>0</v>
@@ -15171,7 +15168,7 @@
         <v>163</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D158" s="11">
         <v>0</v>
@@ -15257,7 +15254,7 @@
         <v>164</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D159" s="12">
         <v>0</v>
@@ -15343,7 +15340,7 @@
         <v>165</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D160" s="11">
         <v>1.2</v>
@@ -15429,7 +15426,7 @@
         <v>166</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D161" s="12">
         <v>0</v>
@@ -15515,7 +15512,7 @@
         <v>167</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D162" s="11">
         <v>0</v>
@@ -15601,7 +15598,7 @@
         <v>168</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D163" s="12">
         <v>0</v>
@@ -15687,7 +15684,7 @@
         <v>169</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D164" s="11">
         <v>0</v>
@@ -15773,7 +15770,7 @@
         <v>170</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D165" s="12">
         <v>1.8</v>
@@ -15859,7 +15856,7 @@
         <v>171</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D166" s="11">
         <v>0</v>
@@ -15945,7 +15942,7 @@
         <v>172</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D167" s="12">
         <v>0</v>
@@ -16031,7 +16028,7 @@
         <v>173</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D168" s="11">
         <v>0</v>
@@ -16117,7 +16114,7 @@
         <v>174</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D169" s="12">
         <v>0.6</v>
@@ -16203,7 +16200,7 @@
         <v>175</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D170" s="11">
         <v>0</v>
@@ -16373,7 +16370,7 @@
         <v>177</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D172" s="11">
         <v>0.8</v>
@@ -16459,7 +16456,7 @@
         <v>178</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D173" s="12">
         <v>0</v>
@@ -16545,7 +16542,7 @@
         <v>179</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D174" s="11">
         <v>0</v>
@@ -16631,7 +16628,7 @@
         <v>180</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D175" s="12">
         <v>0</v>
@@ -16717,7 +16714,7 @@
         <v>181</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D176" s="11">
         <v>2.2999999999999998</v>
@@ -16803,7 +16800,7 @@
         <v>182</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D177" s="12">
         <v>0</v>
@@ -16973,7 +16970,7 @@
         <v>184</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D179" s="12">
         <v>0</v>
@@ -17059,7 +17056,7 @@
         <v>185</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D180" s="11">
         <v>3.7</v>
@@ -17145,7 +17142,7 @@
         <v>186</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D181" s="12">
         <v>0</v>
@@ -17231,7 +17228,7 @@
         <v>187</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D182" s="11">
         <v>0</v>
@@ -17317,7 +17314,7 @@
         <v>188</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D183" s="12">
         <v>0</v>
@@ -17403,7 +17400,7 @@
         <v>189</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D184" s="11">
         <v>0</v>
@@ -17489,7 +17486,7 @@
         <v>190</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D185" s="12">
         <v>1.8</v>
@@ -17575,7 +17572,7 @@
         <v>191</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D186" s="11">
         <v>0</v>
@@ -17661,7 +17658,7 @@
         <v>192</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D187" s="12">
         <v>0</v>
@@ -17747,7 +17744,7 @@
         <v>193</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D188" s="11">
         <v>1.1000000000000001</v>
@@ -17833,7 +17830,7 @@
         <v>194</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D189" s="12">
         <v>1.3</v>
@@ -17919,7 +17916,7 @@
         <v>195</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D190" s="11">
         <v>0</v>
@@ -18005,7 +18002,7 @@
         <v>196</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D191" s="12">
         <v>0</v>
@@ -18175,7 +18172,7 @@
         <v>198</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D193" s="12">
         <v>0</v>
@@ -18261,7 +18258,7 @@
         <v>199</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D194" s="11">
         <v>0</v>
@@ -18347,7 +18344,7 @@
         <v>200</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D195" s="12">
         <v>0</v>
@@ -18433,7 +18430,7 @@
         <v>201</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D196" s="11">
         <v>0.8</v>
@@ -18519,7 +18516,7 @@
         <v>202</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D197" s="12">
         <v>0</v>
@@ -18605,7 +18602,7 @@
         <v>203</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D198" s="11">
         <v>0</v>
@@ -18691,7 +18688,7 @@
         <v>204</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D199" s="12">
         <v>1</v>
@@ -18777,7 +18774,7 @@
         <v>205</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D200" s="11">
         <v>0</v>
@@ -18863,7 +18860,7 @@
         <v>206</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D201" s="12">
         <v>1.2</v>
@@ -18949,7 +18946,7 @@
         <v>207</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D202" s="11">
         <v>0</v>
@@ -19035,7 +19032,7 @@
         <v>208</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D203" s="12">
         <v>0</v>
@@ -19121,7 +19118,7 @@
         <v>209</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D204" s="11">
         <v>0</v>
@@ -19207,7 +19204,7 @@
         <v>210</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D205" s="12">
         <v>1</v>
@@ -19293,7 +19290,7 @@
         <v>211</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D206" s="11">
         <v>0</v>
@@ -19379,7 +19376,7 @@
         <v>212</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D207" s="12">
         <v>0</v>
@@ -19633,7 +19630,7 @@
         <v>214</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D210" s="11">
         <v>0</v>
@@ -19719,7 +19716,7 @@
         <v>215</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D211" s="12">
         <v>0.8</v>
@@ -19805,7 +19802,7 @@
         <v>216</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D212" s="11">
         <v>1.2</v>
@@ -19891,7 +19888,7 @@
         <v>217</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D213" s="12">
         <v>0.4</v>
@@ -19977,7 +19974,7 @@
         <v>218</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D214" s="11">
         <v>1</v>
@@ -20063,7 +20060,7 @@
         <v>219</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D215" s="12">
         <v>0.9</v>
@@ -20149,7 +20146,7 @@
         <v>220</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D216" s="11">
         <v>1.2</v>
@@ -20235,7 +20232,7 @@
         <v>221</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D217" s="12">
         <v>1.4</v>
@@ -20321,7 +20318,7 @@
         <v>222</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D218" s="11">
         <v>1.3</v>
@@ -20407,7 +20404,7 @@
         <v>223</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D219" s="12">
         <v>1.2</v>
@@ -20493,7 +20490,7 @@
         <v>224</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D220" s="11">
         <v>1</v>
@@ -20579,7 +20576,7 @@
         <v>225</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D221" s="12">
         <v>1.1000000000000001</v>
@@ -20665,7 +20662,7 @@
         <v>226</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D222" s="11">
         <v>1.6</v>
@@ -20751,7 +20748,7 @@
         <v>227</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D223" s="12">
         <v>1.2</v>
@@ -20837,7 +20834,7 @@
         <v>228</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D224" s="11">
         <v>1.3</v>
@@ -20923,7 +20920,7 @@
         <v>229</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D225" s="12">
         <v>1.9</v>
@@ -21009,7 +21006,7 @@
         <v>230</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D226" s="11">
         <v>1.2</v>
@@ -21095,7 +21092,7 @@
         <v>231</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D227" s="12">
         <v>0.7</v>
@@ -21265,7 +21262,7 @@
         <v>233</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D229" s="12">
         <v>3</v>
@@ -21351,7 +21348,7 @@
         <v>234</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D230" s="11">
         <v>3.6</v>
@@ -21437,7 +21434,7 @@
         <v>235</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D231" s="12">
         <v>3.5</v>
@@ -21523,7 +21520,7 @@
         <v>236</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D232" s="11">
         <v>3.1</v>
@@ -21609,7 +21606,7 @@
         <v>237</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D233" s="12">
         <v>2.2000000000000002</v>
@@ -21695,7 +21692,7 @@
         <v>238</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D234" s="11">
         <v>3.2</v>
@@ -21865,7 +21862,7 @@
         <v>240</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D236" s="11">
         <v>1.9</v>
@@ -21951,7 +21948,7 @@
         <v>241</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D237" s="12">
         <v>0</v>
@@ -22037,7 +22034,7 @@
         <v>242</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D238" s="11">
         <v>0</v>
@@ -22123,7 +22120,7 @@
         <v>243</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D239" s="12">
         <v>0</v>
@@ -22209,7 +22206,7 @@
         <v>244</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D240" s="11">
         <v>1.5</v>
@@ -22295,7 +22292,7 @@
         <v>245</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D241" s="12">
         <v>0</v>
@@ -22381,7 +22378,7 @@
         <v>246</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D242" s="11">
         <v>0</v>
@@ -22467,7 +22464,7 @@
         <v>247</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D243" s="12">
         <v>2.8</v>
@@ -22553,7 +22550,7 @@
         <v>248</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D244" s="11">
         <v>2.2000000000000002</v>
@@ -22639,7 +22636,7 @@
         <v>249</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D245" s="12">
         <v>0</v>
@@ -22725,7 +22722,7 @@
         <v>250</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D246" s="11">
         <v>0</v>
@@ -22811,7 +22808,7 @@
         <v>251</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D247" s="12">
         <v>1.2</v>
@@ -22897,7 +22894,7 @@
         <v>252</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D248" s="11">
         <v>0</v>
@@ -23067,7 +23064,7 @@
         <v>254</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D250" s="11">
         <v>2.2999999999999998</v>
@@ -23153,7 +23150,7 @@
         <v>255</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D251" s="12">
         <v>2.9</v>
@@ -23239,7 +23236,7 @@
         <v>256</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D252" s="11">
         <v>0</v>
@@ -23325,7 +23322,7 @@
         <v>257</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D253" s="12">
         <v>0</v>
@@ -23411,7 +23408,7 @@
         <v>258</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D254" s="11">
         <v>0</v>
@@ -23497,7 +23494,7 @@
         <v>259</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D255" s="12">
         <v>0</v>
@@ -23583,7 +23580,7 @@
         <v>260</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D256" s="11">
         <v>1.4</v>
@@ -23669,7 +23666,7 @@
         <v>261</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D257" s="12">
         <v>0</v>
@@ -23755,7 +23752,7 @@
         <v>262</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D258" s="11">
         <v>1.4</v>
@@ -23841,7 +23838,7 @@
         <v>263</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D259" s="12">
         <v>0</v>
@@ -23927,7 +23924,7 @@
         <v>264</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D260" s="11">
         <v>1.9</v>
@@ -24097,7 +24094,7 @@
         <v>266</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D262" s="11">
         <v>0</v>
@@ -24183,7 +24180,7 @@
         <v>267</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D263" s="12">
         <v>3.7</v>
@@ -24269,7 +24266,7 @@
         <v>268</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D264" s="11">
         <v>0</v>
@@ -24355,7 +24352,7 @@
         <v>269</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D265" s="12">
         <v>0</v>
@@ -24441,7 +24438,7 @@
         <v>270</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D266" s="11">
         <v>0</v>
@@ -24527,7 +24524,7 @@
         <v>271</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D267" s="12">
         <v>0</v>
@@ -24613,7 +24610,7 @@
         <v>272</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D268" s="11">
         <v>2.8</v>
@@ -24699,7 +24696,7 @@
         <v>273</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D269" s="12">
         <v>0</v>
@@ -24785,7 +24782,7 @@
         <v>274</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D270" s="11">
         <v>0</v>
@@ -24871,7 +24868,7 @@
         <v>275</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D271" s="12">
         <v>0</v>
@@ -24957,7 +24954,7 @@
         <v>276</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D272" s="11">
         <v>0</v>
@@ -25043,7 +25040,7 @@
         <v>277</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D273" s="12">
         <v>0</v>
@@ -25129,7 +25126,7 @@
         <v>278</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D274" s="11">
         <v>3.3</v>
@@ -25215,7 +25212,7 @@
         <v>279</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D275" s="12">
         <v>2.6</v>
@@ -25301,7 +25298,7 @@
         <v>280</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D276" s="11">
         <v>3.4</v>
@@ -25471,7 +25468,7 @@
         <v>282</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D278" s="11">
         <v>5</v>
@@ -25557,7 +25554,7 @@
         <v>283</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D279" s="12">
         <v>0</v>
@@ -25643,7 +25640,7 @@
         <v>284</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D280" s="11">
         <v>3.7</v>
@@ -25729,7 +25726,7 @@
         <v>285</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D281" s="12">
         <v>3.6</v>
@@ -25815,7 +25812,7 @@
         <v>286</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D282" s="11">
         <v>1.2</v>
@@ -25901,7 +25898,7 @@
         <v>287</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D283" s="12">
         <v>2.7</v>
@@ -25987,7 +25984,7 @@
         <v>288</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D284" s="11">
         <v>0</v>
@@ -26073,7 +26070,7 @@
         <v>289</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D285" s="12">
         <v>0</v>
@@ -26159,7 +26156,7 @@
         <v>290</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D286" s="11">
         <v>0</v>
@@ -26245,7 +26242,7 @@
         <v>291</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D287" s="12">
         <v>0</v>
@@ -26331,7 +26328,7 @@
         <v>292</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D288" s="11">
         <v>0</v>
@@ -26417,7 +26414,7 @@
         <v>293</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D289" s="12">
         <v>0</v>
@@ -26503,7 +26500,7 @@
         <v>294</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D290" s="11">
         <v>0</v>
@@ -26589,7 +26586,7 @@
         <v>295</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D291" s="12">
         <v>2.8</v>
@@ -26843,7 +26840,7 @@
         <v>297</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D294" s="11">
         <v>1.5</v>
@@ -26929,7 +26926,7 @@
         <v>298</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D295" s="12">
         <v>0</v>
@@ -27015,7 +27012,7 @@
         <v>299</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D296" s="11">
         <v>0</v>
@@ -27101,7 +27098,7 @@
         <v>300</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D297" s="12">
         <v>0</v>
@@ -27187,7 +27184,7 @@
         <v>301</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D298" s="11">
         <v>0.5</v>
@@ -27273,7 +27270,7 @@
         <v>302</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D299" s="12">
         <v>0</v>
@@ -27359,7 +27356,7 @@
         <v>303</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D300" s="11">
         <v>0</v>
@@ -27445,7 +27442,7 @@
         <v>304</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D301" s="12">
         <v>1.3</v>
@@ -27531,7 +27528,7 @@
         <v>305</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D302" s="11">
         <v>0</v>
@@ -27617,7 +27614,7 @@
         <v>306</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D303" s="12">
         <v>1.4</v>
@@ -27703,7 +27700,7 @@
         <v>307</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D304" s="11">
         <v>1.1000000000000001</v>
@@ -27789,7 +27786,7 @@
         <v>308</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D305" s="12">
         <v>3.7</v>
@@ -27875,7 +27872,7 @@
         <v>309</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D306" s="11">
         <v>1.8</v>
@@ -27961,7 +27958,7 @@
         <v>310</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D307" s="12">
         <v>1.2</v>
@@ -28047,7 +28044,7 @@
         <v>311</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D308" s="11">
         <v>0</v>
@@ -28133,7 +28130,7 @@
         <v>312</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D309" s="12">
         <v>0</v>

--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpate\Documents\UA\Mestrado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2363DFB8-15B3-4225-8E76-DA94C40D2080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D967221-49CB-4562-B77A-AEA2D1F268A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="341">
   <si>
     <t>Anos</t>
   </si>
@@ -1675,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB309"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="C229" sqref="C229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2977,9 +2977,7 @@
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>339</v>
-      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="11">
         <v>0.6</v>
       </c>
@@ -14995,9 +14993,7 @@
       <c r="B156" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>339</v>
-      </c>
+      <c r="C156" s="2"/>
       <c r="D156" s="11">
         <v>0.5</v>
       </c>
@@ -21261,9 +21257,7 @@
       <c r="B229" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C229" s="4" t="s">
-        <v>339</v>
-      </c>
+      <c r="C229" s="4"/>
       <c r="D229" s="12">
         <v>3</v>
       </c>

--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpate\Documents\UA\Mestrado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D967221-49CB-4562-B77A-AEA2D1F268A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E7B0E7-37C9-408F-8914-1FF9FCE8BF8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="341">
   <si>
-    <t>Anos</t>
-  </si>
-  <si>
     <t>Âmbito Geográfico</t>
   </si>
   <si>
@@ -1054,6 +1051,9 @@
   </si>
   <si>
     <t>Regiões com problemas de interioridade</t>
+  </si>
+  <si>
+    <t>Local</t>
   </si>
 </sst>
 </file>
@@ -1675,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB309"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="C229" sqref="C229"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1690,96 +1690,96 @@
   <sheetData>
     <row r="1" spans="1:28" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="11">
@@ -1860,10 +1860,10 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="12">
@@ -1944,10 +1944,10 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="11">
@@ -2028,10 +2028,10 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="12">
@@ -2112,13 +2112,13 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D6" s="11">
         <v>0</v>
@@ -2198,13 +2198,13 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D7" s="12">
         <v>0</v>
@@ -2284,13 +2284,13 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D8" s="11">
         <v>0</v>
@@ -2370,13 +2370,13 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D9" s="12">
         <v>1.8</v>
@@ -2456,13 +2456,13 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D10" s="11">
         <v>0</v>
@@ -2542,13 +2542,13 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D11" s="12">
         <v>0</v>
@@ -2628,13 +2628,13 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D12" s="11">
         <v>0.7</v>
@@ -2714,13 +2714,13 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D13" s="12">
         <v>1.6</v>
@@ -2800,13 +2800,13 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D14" s="11">
         <v>0.6</v>
@@ -2886,13 +2886,13 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D15" s="12">
         <v>0</v>
@@ -2972,10 +2972,10 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="11">
@@ -3056,13 +3056,13 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D17" s="12">
         <v>0</v>
@@ -3142,13 +3142,13 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D18" s="11">
         <v>0.6</v>
@@ -3228,13 +3228,13 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D19" s="12">
         <v>0.8</v>
@@ -3314,13 +3314,13 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D20" s="11">
         <v>0</v>
@@ -3400,13 +3400,13 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D21" s="12">
         <v>0</v>
@@ -3486,13 +3486,13 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D22" s="11">
         <v>0</v>
@@ -3572,10 +3572,10 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="12">
@@ -3656,13 +3656,13 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D24" s="11">
         <v>0</v>
@@ -3742,13 +3742,13 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D25" s="12">
         <v>0.7</v>
@@ -3828,13 +3828,13 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D26" s="11">
         <v>1.2</v>
@@ -3914,13 +3914,13 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D27" s="12">
         <v>0</v>
@@ -4000,13 +4000,13 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D28" s="11">
         <v>0</v>
@@ -4086,13 +4086,13 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D29" s="12">
         <v>0</v>
@@ -4172,13 +4172,13 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D30" s="11">
         <v>0.6</v>
@@ -4258,13 +4258,13 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D31" s="12">
         <v>0</v>
@@ -4344,10 +4344,10 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="11">
@@ -4428,13 +4428,13 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D33" s="12">
         <v>0</v>
@@ -4514,13 +4514,13 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D34" s="11">
         <v>0</v>
@@ -4600,13 +4600,13 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D35" s="12">
         <v>0.4</v>
@@ -4686,13 +4686,13 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D36" s="11">
         <v>0.6</v>
@@ -4772,13 +4772,13 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D37" s="12">
         <v>0.7</v>
@@ -4858,13 +4858,13 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D38" s="11">
         <v>0.8</v>
@@ -4944,13 +4944,13 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D39" s="12">
         <v>1.4</v>
@@ -5030,13 +5030,13 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D40" s="11">
         <v>0.2</v>
@@ -5116,13 +5116,13 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D41" s="12">
         <v>0</v>
@@ -5202,13 +5202,13 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D42" s="11">
         <v>0</v>
@@ -5288,13 +5288,13 @@
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D43" s="12">
         <v>0.5</v>
@@ -5374,13 +5374,13 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D44" s="11">
         <v>0</v>
@@ -5460,13 +5460,13 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D45" s="12">
         <v>0</v>
@@ -5546,13 +5546,13 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D46" s="11">
         <v>0</v>
@@ -5632,13 +5632,13 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D47" s="12">
         <v>0.6</v>
@@ -5718,13 +5718,13 @@
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D48" s="11">
         <v>0</v>
@@ -5804,13 +5804,13 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D49" s="12">
         <v>0.5</v>
@@ -5890,10 +5890,10 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="11">
@@ -5974,13 +5974,13 @@
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D51" s="12">
         <v>0</v>
@@ -6060,13 +6060,13 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D52" s="11">
         <v>0</v>
@@ -6146,13 +6146,13 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D53" s="12">
         <v>0</v>
@@ -6232,13 +6232,13 @@
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D54" s="11">
         <v>0</v>
@@ -6318,13 +6318,13 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D55" s="12">
         <v>1.2</v>
@@ -6404,13 +6404,13 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D56" s="11">
         <v>0</v>
@@ -6490,10 +6490,10 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="12">
@@ -6574,13 +6574,13 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D58" s="11">
         <v>1.8</v>
@@ -6660,13 +6660,13 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D59" s="12">
         <v>0</v>
@@ -6746,13 +6746,13 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D60" s="11">
         <v>0</v>
@@ -6832,13 +6832,13 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D61" s="12">
         <v>2.4</v>
@@ -6918,13 +6918,13 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D62" s="11">
         <v>0</v>
@@ -7004,13 +7004,13 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D63" s="12">
         <v>0.9</v>
@@ -7090,13 +7090,13 @@
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D64" s="11">
         <v>1.4</v>
@@ -7176,13 +7176,13 @@
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D65" s="12">
         <v>0.9</v>
@@ -7262,13 +7262,13 @@
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D66" s="11">
         <v>2.2000000000000002</v>
@@ -7348,13 +7348,13 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D67" s="12">
         <v>1</v>
@@ -7434,13 +7434,13 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D68" s="11">
         <v>0</v>
@@ -7520,10 +7520,10 @@
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="12">
@@ -7604,13 +7604,13 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D70" s="11">
         <v>0</v>
@@ -7690,13 +7690,13 @@
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D71" s="12">
         <v>0</v>
@@ -7776,13 +7776,13 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D72" s="11">
         <v>0</v>
@@ -7862,13 +7862,13 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D73" s="12">
         <v>0</v>
@@ -7948,13 +7948,13 @@
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D74" s="11">
         <v>0</v>
@@ -8034,13 +8034,13 @@
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D75" s="12">
         <v>0</v>
@@ -8120,13 +8120,13 @@
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D76" s="11">
         <v>0</v>
@@ -8206,13 +8206,13 @@
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D77" s="12">
         <v>0</v>
@@ -8292,13 +8292,13 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D78" s="11">
         <v>0</v>
@@ -8378,13 +8378,13 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D79" s="12">
         <v>0</v>
@@ -8464,13 +8464,13 @@
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D80" s="11">
         <v>0</v>
@@ -8550,13 +8550,13 @@
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D81" s="12">
         <v>0</v>
@@ -8636,13 +8636,13 @@
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D82" s="11">
         <v>0</v>
@@ -8722,13 +8722,13 @@
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D83" s="12">
         <v>0</v>
@@ -8808,13 +8808,13 @@
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D84" s="11">
         <v>0</v>
@@ -8894,13 +8894,13 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D85" s="12">
         <v>0</v>
@@ -8980,13 +8980,13 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D86" s="11">
         <v>0</v>
@@ -9066,13 +9066,13 @@
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D87" s="12">
         <v>0</v>
@@ -9152,13 +9152,13 @@
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D88" s="11">
         <v>0.6</v>
@@ -9238,10 +9238,10 @@
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="12">
@@ -9322,13 +9322,13 @@
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D90" s="11">
         <v>0</v>
@@ -9408,13 +9408,13 @@
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D91" s="12">
         <v>1.3</v>
@@ -9494,13 +9494,13 @@
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D92" s="11">
         <v>0</v>
@@ -9580,13 +9580,13 @@
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D93" s="12">
         <v>2.6</v>
@@ -9666,13 +9666,13 @@
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D94" s="11">
         <v>0</v>
@@ -9752,13 +9752,13 @@
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D95" s="12">
         <v>0</v>
@@ -9838,13 +9838,13 @@
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D96" s="11">
         <v>0</v>
@@ -9924,13 +9924,13 @@
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D97" s="12">
         <v>0</v>
@@ -10010,13 +10010,13 @@
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D98" s="11">
         <v>0</v>
@@ -10096,10 +10096,10 @@
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="12">
@@ -10180,10 +10180,10 @@
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="11">
@@ -10264,13 +10264,13 @@
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D101" s="12">
         <v>2.2000000000000002</v>
@@ -10350,13 +10350,13 @@
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D102" s="11">
         <v>0</v>
@@ -10436,13 +10436,13 @@
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D103" s="12">
         <v>0</v>
@@ -10522,13 +10522,13 @@
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D104" s="11">
         <v>0</v>
@@ -10608,13 +10608,13 @@
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D105" s="12">
         <v>2.8</v>
@@ -10694,13 +10694,13 @@
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D106" s="11">
         <v>1.4</v>
@@ -10780,13 +10780,13 @@
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D107" s="12">
         <v>0</v>
@@ -10866,13 +10866,13 @@
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D108" s="11">
         <v>1.7</v>
@@ -10952,13 +10952,13 @@
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D109" s="12">
         <v>0</v>
@@ -11038,13 +11038,13 @@
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D110" s="11">
         <v>0.9</v>
@@ -11124,13 +11124,13 @@
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D111" s="12">
         <v>0</v>
@@ -11210,13 +11210,13 @@
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D112" s="11">
         <v>1.1000000000000001</v>
@@ -11296,10 +11296,10 @@
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="12">
@@ -11380,13 +11380,13 @@
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D114" s="11">
         <v>0</v>
@@ -11466,13 +11466,13 @@
     </row>
     <row r="115" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D115" s="12">
         <v>1.2</v>
@@ -11552,13 +11552,13 @@
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D116" s="11">
         <v>0</v>
@@ -11638,13 +11638,13 @@
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D117" s="12">
         <v>0.9</v>
@@ -11724,13 +11724,13 @@
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D118" s="11">
         <v>0</v>
@@ -11810,13 +11810,13 @@
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D119" s="12">
         <v>0</v>
@@ -11896,13 +11896,13 @@
     </row>
     <row r="120" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D120" s="11">
         <v>2.2999999999999998</v>
@@ -11982,13 +11982,13 @@
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D121" s="12">
         <v>0</v>
@@ -12068,13 +12068,13 @@
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D122" s="11">
         <v>0.8</v>
@@ -12154,13 +12154,13 @@
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D123" s="12">
         <v>0</v>
@@ -12240,13 +12240,13 @@
     </row>
     <row r="124" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D124" s="11">
         <v>1.6</v>
@@ -12326,10 +12326,10 @@
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="12">
@@ -12410,13 +12410,13 @@
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D126" s="11">
         <v>0</v>
@@ -12496,13 +12496,13 @@
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D127" s="12">
         <v>1.2</v>
@@ -12582,13 +12582,13 @@
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D128" s="11">
         <v>0.5</v>
@@ -12668,13 +12668,13 @@
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D129" s="12">
         <v>2.4</v>
@@ -12754,13 +12754,13 @@
     </row>
     <row r="130" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D130" s="11">
         <v>0.4</v>
@@ -12840,13 +12840,13 @@
     </row>
     <row r="131" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D131" s="12">
         <v>0</v>
@@ -12926,13 +12926,13 @@
     </row>
     <row r="132" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D132" s="11">
         <v>0</v>
@@ -13012,13 +13012,13 @@
     </row>
     <row r="133" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D133" s="12">
         <v>0</v>
@@ -13098,13 +13098,13 @@
     </row>
     <row r="134" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D134" s="11">
         <v>0</v>
@@ -13184,13 +13184,13 @@
     </row>
     <row r="135" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D135" s="12">
         <v>0</v>
@@ -13270,13 +13270,13 @@
     </row>
     <row r="136" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D136" s="11">
         <v>2.2999999999999998</v>
@@ -13356,13 +13356,13 @@
     </row>
     <row r="137" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D137" s="12">
         <v>0</v>
@@ -13442,13 +13442,13 @@
     </row>
     <row r="138" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D138" s="11">
         <v>0</v>
@@ -13528,13 +13528,13 @@
     </row>
     <row r="139" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D139" s="12">
         <v>0</v>
@@ -13614,13 +13614,13 @@
     </row>
     <row r="140" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D140" s="11">
         <v>0</v>
@@ -13700,13 +13700,13 @@
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D141" s="12">
         <v>5.4</v>
@@ -13786,13 +13786,13 @@
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D142" s="11">
         <v>2</v>
@@ -13872,13 +13872,13 @@
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D143" s="12">
         <v>0</v>
@@ -13958,13 +13958,13 @@
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D144" s="11">
         <v>0</v>
@@ -14044,10 +14044,10 @@
     </row>
     <row r="145" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="12">
@@ -14128,13 +14128,13 @@
     </row>
     <row r="146" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D146" s="11">
         <v>0</v>
@@ -14214,13 +14214,13 @@
     </row>
     <row r="147" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D147" s="12">
         <v>0</v>
@@ -14300,13 +14300,13 @@
     </row>
     <row r="148" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D148" s="11">
         <v>0</v>
@@ -14386,13 +14386,13 @@
     </row>
     <row r="149" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D149" s="12">
         <v>0</v>
@@ -14472,13 +14472,13 @@
     </row>
     <row r="150" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D150" s="11">
         <v>0</v>
@@ -14558,13 +14558,13 @@
     </row>
     <row r="151" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D151" s="12">
         <v>0.8</v>
@@ -14644,13 +14644,13 @@
     </row>
     <row r="152" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D152" s="11">
         <v>1.5</v>
@@ -14730,13 +14730,13 @@
     </row>
     <row r="153" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D153" s="12">
         <v>0</v>
@@ -14816,13 +14816,13 @@
     </row>
     <row r="154" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D154" s="11">
         <v>1.3</v>
@@ -14902,13 +14902,13 @@
     </row>
     <row r="155" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D155" s="12">
         <v>0</v>
@@ -14988,10 +14988,10 @@
     </row>
     <row r="156" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="11">
@@ -15072,13 +15072,13 @@
     </row>
     <row r="157" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D157" s="12">
         <v>0</v>
@@ -15158,13 +15158,13 @@
     </row>
     <row r="158" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D158" s="11">
         <v>0</v>
@@ -15244,13 +15244,13 @@
     </row>
     <row r="159" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D159" s="12">
         <v>0</v>
@@ -15330,13 +15330,13 @@
     </row>
     <row r="160" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D160" s="11">
         <v>1.2</v>
@@ -15416,13 +15416,13 @@
     </row>
     <row r="161" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D161" s="12">
         <v>0</v>
@@ -15502,13 +15502,13 @@
     </row>
     <row r="162" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D162" s="11">
         <v>0</v>
@@ -15588,13 +15588,13 @@
     </row>
     <row r="163" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D163" s="12">
         <v>0</v>
@@ -15674,13 +15674,13 @@
     </row>
     <row r="164" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D164" s="11">
         <v>0</v>
@@ -15760,13 +15760,13 @@
     </row>
     <row r="165" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D165" s="12">
         <v>1.8</v>
@@ -15846,13 +15846,13 @@
     </row>
     <row r="166" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D166" s="11">
         <v>0</v>
@@ -15932,13 +15932,13 @@
     </row>
     <row r="167" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D167" s="12">
         <v>0</v>
@@ -16018,13 +16018,13 @@
     </row>
     <row r="168" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D168" s="11">
         <v>0</v>
@@ -16104,13 +16104,13 @@
     </row>
     <row r="169" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D169" s="12">
         <v>0.6</v>
@@ -16190,13 +16190,13 @@
     </row>
     <row r="170" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D170" s="11">
         <v>0</v>
@@ -16276,10 +16276,10 @@
     </row>
     <row r="171" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="12">
@@ -16360,13 +16360,13 @@
     </row>
     <row r="172" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D172" s="11">
         <v>0.8</v>
@@ -16446,13 +16446,13 @@
     </row>
     <row r="173" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D173" s="12">
         <v>0</v>
@@ -16532,13 +16532,13 @@
     </row>
     <row r="174" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D174" s="11">
         <v>0</v>
@@ -16618,13 +16618,13 @@
     </row>
     <row r="175" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D175" s="12">
         <v>0</v>
@@ -16704,13 +16704,13 @@
     </row>
     <row r="176" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D176" s="11">
         <v>2.2999999999999998</v>
@@ -16790,13 +16790,13 @@
     </row>
     <row r="177" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D177" s="12">
         <v>0</v>
@@ -16876,10 +16876,10 @@
     </row>
     <row r="178" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="11">
@@ -16960,13 +16960,13 @@
     </row>
     <row r="179" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D179" s="12">
         <v>0</v>
@@ -17046,13 +17046,13 @@
     </row>
     <row r="180" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D180" s="11">
         <v>3.7</v>
@@ -17132,13 +17132,13 @@
     </row>
     <row r="181" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D181" s="12">
         <v>0</v>
@@ -17218,13 +17218,13 @@
     </row>
     <row r="182" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D182" s="11">
         <v>0</v>
@@ -17304,13 +17304,13 @@
     </row>
     <row r="183" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D183" s="12">
         <v>0</v>
@@ -17390,13 +17390,13 @@
     </row>
     <row r="184" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D184" s="11">
         <v>0</v>
@@ -17476,13 +17476,13 @@
     </row>
     <row r="185" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D185" s="12">
         <v>1.8</v>
@@ -17562,13 +17562,13 @@
     </row>
     <row r="186" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D186" s="11">
         <v>0</v>
@@ -17648,13 +17648,13 @@
     </row>
     <row r="187" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D187" s="12">
         <v>0</v>
@@ -17734,13 +17734,13 @@
     </row>
     <row r="188" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D188" s="11">
         <v>1.1000000000000001</v>
@@ -17820,13 +17820,13 @@
     </row>
     <row r="189" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D189" s="12">
         <v>1.3</v>
@@ -17906,13 +17906,13 @@
     </row>
     <row r="190" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D190" s="11">
         <v>0</v>
@@ -17992,13 +17992,13 @@
     </row>
     <row r="191" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D191" s="12">
         <v>0</v>
@@ -18078,10 +18078,10 @@
     </row>
     <row r="192" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="11">
@@ -18162,13 +18162,13 @@
     </row>
     <row r="193" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D193" s="12">
         <v>0</v>
@@ -18248,13 +18248,13 @@
     </row>
     <row r="194" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D194" s="11">
         <v>0</v>
@@ -18334,13 +18334,13 @@
     </row>
     <row r="195" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D195" s="12">
         <v>0</v>
@@ -18420,13 +18420,13 @@
     </row>
     <row r="196" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D196" s="11">
         <v>0.8</v>
@@ -18506,13 +18506,13 @@
     </row>
     <row r="197" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D197" s="12">
         <v>0</v>
@@ -18592,13 +18592,13 @@
     </row>
     <row r="198" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D198" s="11">
         <v>0</v>
@@ -18678,13 +18678,13 @@
     </row>
     <row r="199" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D199" s="12">
         <v>1</v>
@@ -18764,13 +18764,13 @@
     </row>
     <row r="200" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D200" s="11">
         <v>0</v>
@@ -18850,13 +18850,13 @@
     </row>
     <row r="201" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D201" s="12">
         <v>1.2</v>
@@ -18936,13 +18936,13 @@
     </row>
     <row r="202" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D202" s="11">
         <v>0</v>
@@ -19022,13 +19022,13 @@
     </row>
     <row r="203" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D203" s="12">
         <v>0</v>
@@ -19108,13 +19108,13 @@
     </row>
     <row r="204" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D204" s="11">
         <v>0</v>
@@ -19194,13 +19194,13 @@
     </row>
     <row r="205" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D205" s="12">
         <v>1</v>
@@ -19280,13 +19280,13 @@
     </row>
     <row r="206" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D206" s="11">
         <v>0</v>
@@ -19366,13 +19366,13 @@
     </row>
     <row r="207" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D207" s="12">
         <v>0</v>
@@ -19452,10 +19452,10 @@
     </row>
     <row r="208" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="11">
@@ -19536,10 +19536,10 @@
     </row>
     <row r="209" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="12">
@@ -19620,13 +19620,13 @@
     </row>
     <row r="210" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D210" s="11">
         <v>0</v>
@@ -19706,13 +19706,13 @@
     </row>
     <row r="211" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D211" s="12">
         <v>0.8</v>
@@ -19792,13 +19792,13 @@
     </row>
     <row r="212" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D212" s="11">
         <v>1.2</v>
@@ -19878,13 +19878,13 @@
     </row>
     <row r="213" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D213" s="12">
         <v>0.4</v>
@@ -19964,13 +19964,13 @@
     </row>
     <row r="214" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D214" s="11">
         <v>1</v>
@@ -20050,13 +20050,13 @@
     </row>
     <row r="215" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D215" s="12">
         <v>0.9</v>
@@ -20136,13 +20136,13 @@
     </row>
     <row r="216" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D216" s="11">
         <v>1.2</v>
@@ -20222,13 +20222,13 @@
     </row>
     <row r="217" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D217" s="12">
         <v>1.4</v>
@@ -20308,13 +20308,13 @@
     </row>
     <row r="218" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D218" s="11">
         <v>1.3</v>
@@ -20394,13 +20394,13 @@
     </row>
     <row r="219" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D219" s="12">
         <v>1.2</v>
@@ -20480,13 +20480,13 @@
     </row>
     <row r="220" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D220" s="11">
         <v>1</v>
@@ -20566,13 +20566,13 @@
     </row>
     <row r="221" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D221" s="12">
         <v>1.1000000000000001</v>
@@ -20652,13 +20652,13 @@
     </row>
     <row r="222" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D222" s="11">
         <v>1.6</v>
@@ -20738,13 +20738,13 @@
     </row>
     <row r="223" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D223" s="12">
         <v>1.2</v>
@@ -20824,13 +20824,13 @@
     </row>
     <row r="224" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D224" s="11">
         <v>1.3</v>
@@ -20910,13 +20910,13 @@
     </row>
     <row r="225" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D225" s="12">
         <v>1.9</v>
@@ -20996,13 +20996,13 @@
     </row>
     <row r="226" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D226" s="11">
         <v>1.2</v>
@@ -21082,13 +21082,13 @@
     </row>
     <row r="227" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D227" s="12">
         <v>0.7</v>
@@ -21168,10 +21168,10 @@
     </row>
     <row r="228" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="11">
@@ -21252,10 +21252,10 @@
     </row>
     <row r="229" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="12">
@@ -21336,13 +21336,13 @@
     </row>
     <row r="230" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D230" s="11">
         <v>3.6</v>
@@ -21422,13 +21422,13 @@
     </row>
     <row r="231" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D231" s="12">
         <v>3.5</v>
@@ -21508,13 +21508,13 @@
     </row>
     <row r="232" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D232" s="11">
         <v>3.1</v>
@@ -21594,13 +21594,13 @@
     </row>
     <row r="233" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D233" s="12">
         <v>2.2000000000000002</v>
@@ -21680,13 +21680,13 @@
     </row>
     <row r="234" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D234" s="11">
         <v>3.2</v>
@@ -21766,10 +21766,10 @@
     </row>
     <row r="235" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="12">
@@ -21850,13 +21850,13 @@
     </row>
     <row r="236" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D236" s="11">
         <v>1.9</v>
@@ -21936,13 +21936,13 @@
     </row>
     <row r="237" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D237" s="12">
         <v>0</v>
@@ -22022,13 +22022,13 @@
     </row>
     <row r="238" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D238" s="11">
         <v>0</v>
@@ -22108,13 +22108,13 @@
     </row>
     <row r="239" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D239" s="12">
         <v>0</v>
@@ -22194,13 +22194,13 @@
     </row>
     <row r="240" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D240" s="11">
         <v>1.5</v>
@@ -22280,13 +22280,13 @@
     </row>
     <row r="241" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D241" s="12">
         <v>0</v>
@@ -22366,13 +22366,13 @@
     </row>
     <row r="242" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D242" s="11">
         <v>0</v>
@@ -22452,13 +22452,13 @@
     </row>
     <row r="243" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D243" s="12">
         <v>2.8</v>
@@ -22538,13 +22538,13 @@
     </row>
     <row r="244" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D244" s="11">
         <v>2.2000000000000002</v>
@@ -22624,13 +22624,13 @@
     </row>
     <row r="245" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D245" s="12">
         <v>0</v>
@@ -22710,13 +22710,13 @@
     </row>
     <row r="246" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D246" s="11">
         <v>0</v>
@@ -22796,13 +22796,13 @@
     </row>
     <row r="247" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D247" s="12">
         <v>1.2</v>
@@ -22882,13 +22882,13 @@
     </row>
     <row r="248" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D248" s="11">
         <v>0</v>
@@ -22968,10 +22968,10 @@
     </row>
     <row r="249" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="12">
@@ -23052,13 +23052,13 @@
     </row>
     <row r="250" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D250" s="11">
         <v>2.2999999999999998</v>
@@ -23138,13 +23138,13 @@
     </row>
     <row r="251" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D251" s="12">
         <v>2.9</v>
@@ -23224,13 +23224,13 @@
     </row>
     <row r="252" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D252" s="11">
         <v>0</v>
@@ -23310,13 +23310,13 @@
     </row>
     <row r="253" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D253" s="12">
         <v>0</v>
@@ -23396,13 +23396,13 @@
     </row>
     <row r="254" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D254" s="11">
         <v>0</v>
@@ -23482,13 +23482,13 @@
     </row>
     <row r="255" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D255" s="12">
         <v>0</v>
@@ -23568,13 +23568,13 @@
     </row>
     <row r="256" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D256" s="11">
         <v>1.4</v>
@@ -23654,13 +23654,13 @@
     </row>
     <row r="257" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D257" s="12">
         <v>0</v>
@@ -23740,13 +23740,13 @@
     </row>
     <row r="258" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D258" s="11">
         <v>1.4</v>
@@ -23826,13 +23826,13 @@
     </row>
     <row r="259" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D259" s="12">
         <v>0</v>
@@ -23912,13 +23912,13 @@
     </row>
     <row r="260" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D260" s="11">
         <v>1.9</v>
@@ -23998,10 +23998,10 @@
     </row>
     <row r="261" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="12">
@@ -24082,13 +24082,13 @@
     </row>
     <row r="262" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D262" s="11">
         <v>0</v>
@@ -24168,13 +24168,13 @@
     </row>
     <row r="263" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D263" s="12">
         <v>3.7</v>
@@ -24254,13 +24254,13 @@
     </row>
     <row r="264" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D264" s="11">
         <v>0</v>
@@ -24340,13 +24340,13 @@
     </row>
     <row r="265" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D265" s="12">
         <v>0</v>
@@ -24426,13 +24426,13 @@
     </row>
     <row r="266" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D266" s="11">
         <v>0</v>
@@ -24512,13 +24512,13 @@
     </row>
     <row r="267" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D267" s="12">
         <v>0</v>
@@ -24598,13 +24598,13 @@
     </row>
     <row r="268" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D268" s="11">
         <v>2.8</v>
@@ -24684,13 +24684,13 @@
     </row>
     <row r="269" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D269" s="12">
         <v>0</v>
@@ -24770,13 +24770,13 @@
     </row>
     <row r="270" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D270" s="11">
         <v>0</v>
@@ -24856,13 +24856,13 @@
     </row>
     <row r="271" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D271" s="12">
         <v>0</v>
@@ -24942,13 +24942,13 @@
     </row>
     <row r="272" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D272" s="11">
         <v>0</v>
@@ -25028,13 +25028,13 @@
     </row>
     <row r="273" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D273" s="12">
         <v>0</v>
@@ -25114,13 +25114,13 @@
     </row>
     <row r="274" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D274" s="11">
         <v>3.3</v>
@@ -25200,13 +25200,13 @@
     </row>
     <row r="275" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D275" s="12">
         <v>2.6</v>
@@ -25286,13 +25286,13 @@
     </row>
     <row r="276" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D276" s="11">
         <v>3.4</v>
@@ -25372,10 +25372,10 @@
     </row>
     <row r="277" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C277" s="4"/>
       <c r="D277" s="12">
@@ -25456,13 +25456,13 @@
     </row>
     <row r="278" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D278" s="11">
         <v>5</v>
@@ -25542,13 +25542,13 @@
     </row>
     <row r="279" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D279" s="12">
         <v>0</v>
@@ -25628,13 +25628,13 @@
     </row>
     <row r="280" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D280" s="11">
         <v>3.7</v>
@@ -25714,13 +25714,13 @@
     </row>
     <row r="281" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D281" s="12">
         <v>3.6</v>
@@ -25800,13 +25800,13 @@
     </row>
     <row r="282" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D282" s="11">
         <v>1.2</v>
@@ -25886,13 +25886,13 @@
     </row>
     <row r="283" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D283" s="12">
         <v>2.7</v>
@@ -25972,13 +25972,13 @@
     </row>
     <row r="284" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D284" s="11">
         <v>0</v>
@@ -26058,13 +26058,13 @@
     </row>
     <row r="285" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D285" s="12">
         <v>0</v>
@@ -26144,13 +26144,13 @@
     </row>
     <row r="286" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D286" s="11">
         <v>0</v>
@@ -26230,13 +26230,13 @@
     </row>
     <row r="287" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D287" s="12">
         <v>0</v>
@@ -26316,13 +26316,13 @@
     </row>
     <row r="288" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D288" s="11">
         <v>0</v>
@@ -26402,13 +26402,13 @@
     </row>
     <row r="289" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D289" s="12">
         <v>0</v>
@@ -26488,13 +26488,13 @@
     </row>
     <row r="290" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D290" s="11">
         <v>0</v>
@@ -26574,13 +26574,13 @@
     </row>
     <row r="291" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D291" s="12">
         <v>2.8</v>
@@ -26660,10 +26660,10 @@
     </row>
     <row r="292" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" s="11">
@@ -26744,10 +26744,10 @@
     </row>
     <row r="293" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C293" s="4"/>
       <c r="D293" s="12">
@@ -26828,13 +26828,13 @@
     </row>
     <row r="294" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D294" s="11">
         <v>1.5</v>
@@ -26914,13 +26914,13 @@
     </row>
     <row r="295" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D295" s="12">
         <v>0</v>
@@ -27000,13 +27000,13 @@
     </row>
     <row r="296" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D296" s="11">
         <v>0</v>
@@ -27086,13 +27086,13 @@
     </row>
     <row r="297" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D297" s="12">
         <v>0</v>
@@ -27172,13 +27172,13 @@
     </row>
     <row r="298" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D298" s="11">
         <v>0.5</v>
@@ -27258,13 +27258,13 @@
     </row>
     <row r="299" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D299" s="12">
         <v>0</v>
@@ -27344,13 +27344,13 @@
     </row>
     <row r="300" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D300" s="11">
         <v>0</v>
@@ -27430,13 +27430,13 @@
     </row>
     <row r="301" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D301" s="12">
         <v>1.3</v>
@@ -27516,13 +27516,13 @@
     </row>
     <row r="302" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D302" s="11">
         <v>0</v>
@@ -27602,13 +27602,13 @@
     </row>
     <row r="303" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D303" s="12">
         <v>1.4</v>
@@ -27688,13 +27688,13 @@
     </row>
     <row r="304" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D304" s="11">
         <v>1.1000000000000001</v>
@@ -27774,13 +27774,13 @@
     </row>
     <row r="305" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D305" s="12">
         <v>3.7</v>
@@ -27860,13 +27860,13 @@
     </row>
     <row r="306" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D306" s="11">
         <v>1.8</v>
@@ -27946,13 +27946,13 @@
     </row>
     <row r="307" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D307" s="12">
         <v>1.2</v>
@@ -28032,13 +28032,13 @@
     </row>
     <row r="308" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D308" s="11">
         <v>0</v>
@@ -28118,13 +28118,13 @@
     </row>
     <row r="309" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D309" s="12">
         <v>0</v>
